--- a/Udacity Preparing and Modelling Data/Data Model for Seven Sages Brewing Company/source-files/Monthly Sales Logs/SSBC - May 2021 Sales.xlsx
+++ b/Udacity Preparing and Modelling Data/Data Model for Seven Sages Brewing Company/source-files/Monthly Sales Logs/SSBC - May 2021 Sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenor_1m07fy7\Desktop\Udacity - Power BI Idea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PowerBI\Power-BI\Udacity Preparing and Modelling Data\Data Model for Seven Sages Brewing Company\source-files\Monthly Sales Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97850CAA-42C8-4DAA-A34E-A61646126C32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DF2EF0-9AE6-48BB-AC64-4DFDABB0A3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{C9C1719B-1F83-44B5-B4C1-121E51ACABE0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{C9C1719B-1F83-44B5-B4C1-121E51ACABE0}"/>
   </bookViews>
   <sheets>
     <sheet name="May 2021 Sales" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>ProdID</t>
+  </si>
+  <si>
+    <t>Currency</t>
   </si>
 </sst>
 </file>
@@ -301,7 +304,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -416,12 +419,11 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71DCE2D-B575-4A94-AB0E-9E328D9F37C5}" name="Table5371112" displayName="Table5371112" ref="A1:E68" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E68" xr:uid="{5FADBE7F-BA1B-4A37-90C5-0AFE3140F2F2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B410A987-6CA9-469D-82CF-ADFAD4EB5CB2}" name="CustID" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{AC6C775E-C4BE-4E1F-9C36-82768865A688}" name="ProdID" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{2AF08C66-694E-4DF9-A872-951AE533AD51}" name="Date" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{4C3A9C1E-77EB-49A0-8CA4-5483AAED7E71}" name="CAD" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{4C3A9C1E-77EB-49A0-8CA4-5483AAED7E71}" name="Currency" dataDxfId="1">
       <calculatedColumnFormula>IF(LEFT(A2,2)="BC","CAD","USD")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{7F7E1347-E5D5-468D-91D3-9180AECBF90F}" name="Qty" dataDxfId="0"/>
@@ -733,7 +735,7 @@
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:E1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -749,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
